--- a/participants/participant_28/participant_28_task_orders.xlsx
+++ b/participants/participant_28/participant_28_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498730914890451" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498730925017986" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498730925077975" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498730925667653" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498730926298015" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912156931021" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912183219569" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650291218323956" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16502912183869636" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912184791565" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498730914600425.csv</t>
+          <t>go_stims-16502912156400983.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-1649873091472018.csv</t>
+          <t>GNG_stims-16502912156600986.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1649873091473009.csv</t>
+          <t>go_stims-1650291215661099.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498730914880416.csv</t>
+          <t>GNG_stims-1650291215691101.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1649873092133777.csv</t>
+          <t>OB-1650291217113704.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-1649873091624008.csv</t>
+          <t>OB-16502912167617052.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-1649873092417801.csv</t>
+          <t>TB-16502912183049543.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16498730920307708.csv</t>
+          <t>ZB-match_7-16502912157631009.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16498730919007642.csv</t>
+          <t>OB-16502912163076992.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1649873092487764.csv</t>
+          <t>ZB-match_6-16502912161886969.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16498730918487988.csv</t>
+          <t>TB-16502912176929564.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_5-16498730915250459.csv</t>
+          <t>ZB-match_2-16502912161547036.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_6-1649873091583012.csv</t>
+          <t>TB-16502912181149566.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16498730925347664.csv</t>
+          <t>MM_stims-16502912183379562.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730925087657.csv</t>
+          <t>ZM_stims-16502912183259568.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16498730925498016.csv</t>
+          <t>MM_stims-1650291218369957.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498730925347664.csv</t>
+          <t>ZM_stims-16502912183389568.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498730925657997.csv</t>
+          <t>MM_stims-16502912183859925.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1649873092550766.csv</t>
+          <t>ZM_stims-16502912183709593.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730926138027.csv</t>
+          <t>SAT_stims-16502912184169555.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498730925978022.csv</t>
+          <t>vSAT_stims-16502912184331388.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730925697792.csv</t>
+          <t>SAT_stims-1650291218390995.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498730925818021.csv</t>
+          <t>vSAT_stims-16502912184631183.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_28/participant_28_task_orders.xlsx
+++ b/participants/participant_28/participant_28_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912156931021" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912183219569" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650291218323956" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16502912183869636" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912184791565" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778444126682" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778463847609" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778463866704" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650477846433669" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16504778464967034" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912156400983.csv</t>
+          <t>go_stims-16504778443716695.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912156600986.csv</t>
+          <t>GNG_stims-16504778443966699.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1650291215661099.csv</t>
+          <t>go_stims-16504778443976715.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650291215691101.csv</t>
+          <t>GNG_stims-16504778444117045.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-1650291217113704.csv</t>
+          <t>TB-1650477845967672.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16502912167617052.csv</t>
+          <t>OB-16504778451827047.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TB-16502912183049543.csv</t>
+          <t>ZB-match_2-16504778449146707.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_7-16502912157631009.csv</t>
+          <t>ZB-match_9-16504778445327053.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-16502912163076992.csv</t>
+          <t>TB-1650477846356706.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_6-16502912161886969.csv</t>
+          <t>ZB-match_4-1650477844742668.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16502912176929564.csv</t>
+          <t>TB-16504778461987052.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_2-16502912161547036.csv</t>
+          <t>OB-1650477845397704.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912181149566.csv</t>
+          <t>OB-16504778452717035.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912183379562.csv</t>
+          <t>MM_stims-165047784640074.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912183259568.csv</t>
+          <t>ZM_stims-165047784638967.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650291218369957.csv</t>
+          <t>MM_stims-16504778464167068.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912183389568.csv</t>
+          <t>ZM_stims-16504778464016712.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16502912183859925.csv</t>
+          <t>MM_stims-16504778464327044.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912183709593.csv</t>
+          <t>ZM_stims-16504778464167068.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912184169555.csv</t>
+          <t>vSAT_stims-16504778464646697.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912184331388.csv</t>
+          <t>SAT_stims-16504778464366693.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1650291218390995.csv</t>
+          <t>SAT_stims-16504778464487033.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912184631183.csv</t>
+          <t>vSAT_stims-16504778464807055.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_28/participant_28_task_orders.xlsx
+++ b/participants/participant_28/participant_28_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778444126682" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778463847609" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778463866704" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650477846433669" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16504778464967034" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961345051398" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16509961368097637" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16509961368097637" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961368657374" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961369457672" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778443716695.csv</t>
+          <t>go_stims-16509961344731069.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778443966699.csv</t>
+          <t>GNG_stims-16509961344891498.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778443976715.csv</t>
+          <t>go_stims-16509961344891498.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778444117045.csv</t>
+          <t>GNG_stims-16509961345051398.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1650477845967672.csv</t>
+          <t>OB-16509961353214865.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778451827047.csv</t>
+          <t>ZB-match_3-16509961349934807.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_2-16504778449146707.csv</t>
+          <t>ZB-match_8-16509961346411076.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778445327053.csv</t>
+          <t>TB-16509961365457678.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-1650477846356706.csv</t>
+          <t>ZB-match_3-16509961348414824.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_4-1650477844742668.csv</t>
+          <t>TB-16509961358817327.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16504778461987052.csv</t>
+          <t>OB-1650996135737484.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650477845397704.csv</t>
+          <t>OB-16509961357055168.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OB-16504778452717035.csv</t>
+          <t>TB-16509961367777681.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-165047784640074.csv</t>
+          <t>MM_stims-16509961368337662.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-165047784638967.csv</t>
+          <t>ZM_stims-16509961368097637.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778464167068.csv</t>
+          <t>MM_stims-1650996136849732.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778464016712.csv</t>
+          <t>ZM_stims-16509961368337662.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16504778464327044.csv</t>
+          <t>MM_stims-16509961368657374.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778464167068.csv</t>
+          <t>ZM_stims-1650996136849732.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778464646697.csv</t>
+          <t>SAT_stims-16509961368977678.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778464366693.csv</t>
+          <t>vSAT_stims-16509961369297676.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778464487033.csv</t>
+          <t>SAT_stims-16509961368657374.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778464807055.csv</t>
+          <t>vSAT_stims-16509961369137378.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_28/participant_28_task_orders.xlsx
+++ b/participants/participant_28/participant_28_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961345051398" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16509961368097637" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16509961368097637" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961368657374" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961369457672" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16511687345106356" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687365088973" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687365108652" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651168736572327" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687366475823" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961344731069.csv</t>
+          <t>go_stims-1651168734470461.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961344891498.csv</t>
+          <t>GNG_stims-16511687344938858.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961344891498.csv</t>
+          <t>go_stims-1651168734495889.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961345051398.csv</t>
+          <t>GNG_stims-16511687345096183.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16509961353214865.csv</t>
+          <t>TB-16511687361683564.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509961349934807.csv</t>
+          <t>TB-16511687364288855.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_8-16509961346411076.csv</t>
+          <t>OB-16511687356424897.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961365457678.csv</t>
+          <t>OB-16511687359896805.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_3-16509961348414824.csv</t>
+          <t>ZB-match_9-16511687347324631.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-16509961358817327.csv</t>
+          <t>ZB-match_1-1651168735249095.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1650996135737484.csv</t>
+          <t>OB-1651168735686449.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961357055168.csv</t>
+          <t>TB-16511687364879131.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961367777681.csv</t>
+          <t>ZB-match_2-165116873519122.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961368337662.csv</t>
+          <t>MM_stims-16511687365238693.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961368097637.csv</t>
+          <t>ZM_stims-1651168736512958.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996136849732.csv</t>
+          <t>MM_stims-1651168736554606.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961368337662.csv</t>
+          <t>ZM_stims-16511687365248315.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961368657374.csv</t>
+          <t>MM_stims-1651168736570327.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996136849732.csv</t>
+          <t>ZM_stims-1651168736554606.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961368977678.csv</t>
+          <t>SAT_stims-16511687365766115.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961369297676.csv</t>
+          <t>vSAT_stims-1651168736616561.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961368657374.csv</t>
+          <t>vSAT_stims-16511687366325836.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961369137378.csv</t>
+          <t>SAT_stims-16511687366010346.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_28/participant_28_task_orders.xlsx
+++ b/participants/participant_28/participant_28_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16511687345106356" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687365088973" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687365108652" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651168736572327" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687366475823" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555607544127" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16512555633413537" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16512555633483543" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16512555634063563" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555634853547" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168734470461.csv</t>
+          <t>go_stims-16512555607184196.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687344938858.csv</t>
+          <t>GNG_stims-165125556073941.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651168734495889.csv</t>
+          <t>go_stims-1651255560740414.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687345096183.csv</t>
+          <t>GNG_stims-1651255560753417.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687361683564.csv</t>
+          <t>TB-16512555633153553.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511687364288855.csv</t>
+          <t>OB-16512555621193535.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511687356424897.csv</t>
+          <t>ZB-match_8-16512555609765215.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16511687359896805.csv</t>
+          <t>TB-16512555632113543.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511687347324631.csv</t>
+          <t>TB-16512555628803554.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651168735249095.csv</t>
+          <t>OB-16512555623703563.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-1651168735686449.csv</t>
+          <t>OB-16512555622103543.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16511687364879131.csv</t>
+          <t>ZB-match_9-16512555614683614.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_2-165116873519122.csv</t>
+          <t>ZB-match_1-1651255561802354.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687365238693.csv</t>
+          <t>MM_stims-1651255563373356.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168736512958.csv</t>
+          <t>ZM_stims-16512555633503585.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168736554606.csv</t>
+          <t>MM_stims-16512555633893554.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687365248315.csv</t>
+          <t>ZM_stims-16512555633743591.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168736570327.csv</t>
+          <t>MM_stims-16512555634053564.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1651168736554606.csv</t>
+          <t>ZM_stims-16512555633903575.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687365766115.csv</t>
+          <t>SAT_stims-1651255563437357.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168736616561.csv</t>
+          <t>vSAT_stims-16512555634533553.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687366325836.csv</t>
+          <t>SAT_stims-1651255563412361.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687366010346.csv</t>
+          <t>vSAT_stims-16512555634693544.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_28/participant_28_task_orders.xlsx
+++ b/participants/participant_28/participant_28_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555607544127" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16512555633413537" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16512555633483543" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16512555634063563" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555634853547" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="TOL_TO-16515889958994648" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-165158899759016" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="vSAT_TO-16515889976526306" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RS_TO-16515889976526306" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="GNG_TO-16515889976838837" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555607184196.csv</t>
+          <t>MM_stims-16515889958682482.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-165125556073941.csv</t>
+          <t>ZM_stims-16515889958526227.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-1651255560740414.csv</t>
+          <t>MM_stims-16515889958838403.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1651255560753417.csv</t>
+          <t>ZM_stims-16515889958682482.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MM_stims-16515889958994648.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZM_stims-16515889958838403.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +536,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16512555633153553.csv</t>
+          <t>ZB-match_7-1651588996286277.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +546,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16512555621193535.csv</t>
+          <t>TB-16515889974005206.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_8-16512555609765215.csv</t>
+          <t>OB-16515889971373289.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16512555632113543.csv</t>
+          <t>TB-1651588997574535.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16512555628803554.csv</t>
+          <t>ZB-match_4-16515889965392883.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16512555623703563.csv</t>
+          <t>OB-16515889971216981.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +596,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16512555622103543.csv</t>
+          <t>OB-16515889968226764.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +606,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ZB-match_9-16512555614683614.csv</t>
+          <t>ZB-match_0-16515889961903963.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +616,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_1-1651255561802354.csv</t>
+          <t>TB-16515889971712918.csv</t>
         </is>
       </c>
     </row>
@@ -606,6 +626,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889976370084.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SAT_stims-16515889976058474.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAT_stims-165158899759016.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>vSAT_stims-16515889976213837.csv</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,92 +729,6 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes closed</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MM_stims-1651255563373356.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555633503585.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555633893554.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555633743591.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MM_stims-16512555634053564.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZM_stims-16512555633903575.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255563437357.csv</t>
+          <t>go_stims-16515889976526306.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555634533553.csv</t>
+          <t>GNG_stims-1651588997668255.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-1651255563412361.csv</t>
+          <t>go_stims-1651588997668255.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16512555634693544.csv</t>
+          <t>GNG_stims-16515889976838837.csv</t>
         </is>
       </c>
     </row>
